--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992B679-04BF-483C-B676-50A083FCCAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86434E9-E695-4DB1-84B4-3925A9C5DD3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Linhas</t>
   </si>
@@ -64,13 +64,23 @@
   </si>
   <si>
     <t>rwasef1830</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +106,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EF94-EE12-4615-A93A-8D697F47BA36}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,33 +444,66 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D4" si="0">(C2/B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,35 +513,99 @@
       <c r="C5">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f>(C5/B5)</f>
+        <v>5.7773109243697482E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D11" si="1">(C6/B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992B679-04BF-483C-B676-50A083FCCAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9CBB1-A404-4206-B071-DB12BEEAFBD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Linhas</t>
   </si>
@@ -64,13 +64,26 @@
   </si>
   <si>
     <t>rwasef1830</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +109,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EF94-EE12-4615-A93A-8D697F47BA36}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,33 +447,66 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D4" si="0">(C2/B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.197802197802198E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,35 +516,112 @@
       <c r="C5">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f>(C5/B5)</f>
+        <v>5.7773109243697482E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1082</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D11" si="1">(C6/B6)</f>
+        <v>1.756007393715342E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B11)</f>
+        <v>2132</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C11)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9CBB1-A404-4206-B071-DB12BEEAFBD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF61F69-4752-4AC8-AC68-CEDD72E495F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,14 +466,14 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1427</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D4" si="0">(C2/B2)</f>
-        <v>1</v>
+        <v>0.17799579537491239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,14 +481,14 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.5914085914085919E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,11 +617,11 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>2132</v>
+        <v>4558</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C11)</f>
-        <v>83</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\TrabalhoLesandroPQS\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF61F69-4752-4AC8-AC68-CEDD72E495F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90BB535A-F7B7-4963-A2D9-A0FC66CE5742}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,12 +121,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EF94-EE12-4615-A93A-8D697F47BA36}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +456,7 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -461,7 +470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,11 +481,11 @@
         <v>254</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D4" si="0">(C2/B2)</f>
+        <f>(C2/B2)</f>
         <v>0.17799579537491239</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -487,11 +496,11 @@
         <v>86</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:D4" si="0">(C3/B3)</f>
         <v>8.5914085914085919E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -506,7 +515,7 @@
         <v>2.197802197802198E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -521,7 +530,7 @@
         <v>5.7773109243697482E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -536,95 +545,98 @@
         <v>1.756007393715342E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.74025974025974E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1932</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9151138716356108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3513513513513514E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>4558</v>
+        <v>7485</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C11)</f>
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\TrabalhoLesandroPQS\PQSAnaliseDocumentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90BB535A-F7B7-4963-A2D9-A0FC66CE5742}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80D98E-42B2-4782-995F-4718578C35ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
@@ -144,6 +144,1035 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Linhas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5B3-4003-A91A-7118C4D7668A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Comentario</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5B3-4003-A91A-7118C4D7668A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415709488"/>
+        <c:axId val="415702272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="415709488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415702272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415702272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415709488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081DE3C1-DC77-417B-9F30-5D4DB0384C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,7 +1475,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +1525,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D2:D4" si="0">(C3/B3)</f>
+        <f t="shared" ref="D3:D4" si="0">(C3/B3)</f>
         <v>8.5914085914085919E-2</v>
       </c>
     </row>
@@ -638,5 +1667,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\PQSAnaliseDocumentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80D98E-42B2-4782-995F-4718578C35ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA44B4E-C303-4E81-9321-93F4A0A51569}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{6F00A9CE-EC6D-4C4D-84EE-4C4AF610B84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Linhas</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>forks</t>
+  </si>
+  <si>
+    <t>repositorios</t>
+  </si>
+  <si>
+    <t>commits</t>
   </si>
 </sst>
 </file>
@@ -591,7 +604,936 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linhas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linhas Comentadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>repositorios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>commits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>wongsyrone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Noisyfox</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GangZhuo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>celeron533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>icylogic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>breakwa11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wzxjohn</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chenshaoju</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>everyx</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rwasef1830</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-604F-46B3-8A1F-6170AFE194A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="456756960"/>
+        <c:axId val="456758600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="456756960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456758600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456758600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456756960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1134,6 +2076,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1155,6 +2600,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081DE3C1-DC77-417B-9F30-5D4DB0384C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B78B5C-A6A4-4883-8E6B-87B9513E7DD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EF94-EE12-4615-A93A-8D697F47BA36}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,4 +3155,324 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC83A0C8-F7EE-4812-80F5-3A749E5A1C39}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1427</v>
+      </c>
+      <c r="C2">
+        <v>254</v>
+      </c>
+      <c r="D2">
+        <v>411</v>
+      </c>
+      <c r="E2">
+        <v>166</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H11" si="0">(C2/B2)</f>
+        <v>0.17799579537491239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>326</v>
+      </c>
+      <c r="E3">
+        <v>146</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5914085914085919E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3351</v>
+      </c>
+      <c r="E4">
+        <v>764</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.197802197802198E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>952</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7773109243697482E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1082</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>135</v>
+      </c>
+      <c r="E6">
+        <v>594</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.756007393715342E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>308</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2406</v>
+      </c>
+      <c r="E7">
+        <v>966</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.74025974025974E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1932</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>331</v>
+      </c>
+      <c r="E8">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9151138716356108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3513513513513514E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>576</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>